--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2948.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2948.xlsx
@@ -354,7 +354,7 @@
         <v>2.702223009019428</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.22817403855979</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2948.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2948.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.117273796227885</v>
+        <v>1.040308356285095</v>
       </c>
       <c r="B1">
-        <v>2.702223009019428</v>
+        <v>0.8119840621948242</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.228909969329834</v>
       </c>
       <c r="D1">
-        <v>2.22817403855979</v>
+        <v>3.177035808563232</v>
       </c>
       <c r="E1">
-        <v>1.282613245500822</v>
+        <v>0.941809356212616</v>
       </c>
     </row>
   </sheetData>
